--- a/classfiers/chain/svm/nearmiss/chain-svm-sigmoid-nearmiss-results.xlsx
+++ b/classfiers/chain/svm/nearmiss/chain-svm-sigmoid-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.2533333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.12</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2</v>
+        <v>0.4444444444444445</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chain/svm/nearmiss/chain-svm-sigmoid-nearmiss-results.xlsx
+++ b/classfiers/chain/svm/nearmiss/chain-svm-sigmoid-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.8125000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.9743589743589743</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7499999999999999</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.891025641025641</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.375</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.9102564102564102</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2533333333333333</v>
+        <v>0.8638262322472847</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.7538461538461538</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.7493881118881119</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4444444444444445</v>
+        <v>0.9551282051282051</v>
       </c>
     </row>
   </sheetData>
